--- a/FME_files/LOOKUP_TABLES/ProgressStatusAttributeMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/ProgressStatusAttributeMapper.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>original_value</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>RI_600</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>In work</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -565,6 +571,34 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
